--- a/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/ZheShang_C.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/ZheShang_C.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>委托日期</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>股东帐户</t>
   </si>
@@ -37,12 +34,6 @@
     <t>成交数量</t>
   </si>
   <si>
-    <t>可用余额</t>
-  </si>
-  <si>
-    <t>成交均价</t>
-  </si>
-  <si>
     <t>成交金额</t>
   </si>
   <si>
@@ -52,28 +43,40 @@
     <t>过户费</t>
   </si>
   <si>
-    <t>其他杂费</t>
-  </si>
-  <si>
     <t>佣金</t>
   </si>
   <si>
     <t>发生金额</t>
   </si>
   <si>
-    <t>可用金额</t>
-  </si>
-  <si>
-    <t>E031199418</t>
-  </si>
-  <si>
-    <t>巨化股份</t>
-  </si>
-  <si>
     <t>证券买入</t>
   </si>
   <si>
-    <t>苏宁云商</t>
+    <t>成交日期</t>
+  </si>
+  <si>
+    <t>成交价格</t>
+  </si>
+  <si>
+    <t>发生数量</t>
+  </si>
+  <si>
+    <t>股票余额</t>
+  </si>
+  <si>
+    <t>成交编号</t>
+  </si>
+  <si>
+    <t>交易市场</t>
+  </si>
+  <si>
+    <t>证券卖出</t>
+  </si>
+  <si>
+    <t>万顺股份</t>
+  </si>
+  <si>
+    <t>深圳Ａ股</t>
   </si>
 </sst>
 </file>
@@ -425,212 +428,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>20170622</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300057</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-343996</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-343996</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4127952</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4122709.54</v>
+      </c>
+      <c r="J2" s="1">
+        <v>19804</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1031.99</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4127.95</v>
+      </c>
+      <c r="M2" s="1">
+        <v>82.52</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1020000</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>603134596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>20170622</v>
+      </c>
+      <c r="B3" s="1">
+        <v>300057</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>20160503</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1">
-        <v>600160</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2305</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1">
-        <v>23800</v>
-      </c>
-      <c r="H2" s="1">
-        <v>23800</v>
-      </c>
-      <c r="I2" s="1">
-        <v>11.22</v>
-      </c>
-      <c r="J2" s="1">
-        <v>267036</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="F3" s="1">
+        <v>345400</v>
+      </c>
+      <c r="G3" s="1">
+        <v>345400</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4144800</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-4145919.1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>365204</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1036.2</v>
+      </c>
+      <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>5.32</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>66.760000000000005</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-267108.08</v>
-      </c>
-      <c r="P2" s="1">
-        <v>5392899.0800000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>20160503</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1">
-        <v>600160</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2417</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1">
-        <v>59200</v>
-      </c>
-      <c r="H3" s="1">
-        <v>83000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>11.26</v>
-      </c>
-      <c r="J3" s="1">
-        <v>666592</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>13.41</v>
-      </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>82.9</v>
       </c>
       <c r="N3" s="1">
-        <v>166.65</v>
+        <v>1020000</v>
       </c>
       <c r="O3" s="1">
-        <v>-666772.06000000006</v>
-      </c>
-      <c r="P3" s="1">
-        <v>4726127.0199999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>20160503</v>
-      </c>
-      <c r="B4" s="1">
+        <v>92</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1">
         <v>603134596</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2024</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2717</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1">
-        <v>397300</v>
-      </c>
-      <c r="H4" s="1">
-        <v>397300</v>
-      </c>
-      <c r="I4" s="1">
-        <v>11.318</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4496707</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>89.97</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1124.18</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-4497921.1500000004</v>
-      </c>
-      <c r="P4" s="1">
-        <v>228205.87</v>
       </c>
     </row>
   </sheetData>
